--- a/metrics/R2/average time/Ictus.xlsx
+++ b/metrics/R2/average time/Ictus.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8893215780935468</v>
+        <v>0.8412913945867674</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8893215780935468</v>
+        <v>0.8412913945867674</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8893215780935468</v>
+        <v>0.8412913945867674</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9969033162691203</v>
+        <v>0.9964147767480774</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9972067099356036</v>
+        <v>0.9962368461569051</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9971279349314993</v>
+        <v>0.9964575044515035</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9965699670864142</v>
+        <v>0.9953328069994493</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9965700457374805</v>
+        <v>0.9953326522840493</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9965699670864142</v>
+        <v>0.9953328069994493</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.985639071626108</v>
+        <v>0.9849277067378542</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9854972758612843</v>
+        <v>0.9856105249868392</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9861078689948336</v>
+        <v>0.9847521582693357</v>
       </c>
     </row>
   </sheetData>
